--- a/data/cost/PP_cost_ind.xlsx
+++ b/data/cost/PP_cost_ind.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1BD96F-E153-6F4F-893B-F3F4FE982C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2520C812-8BB1-D54A-9FB9-FDB2300582BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31220" windowHeight="19440" xr2:uid="{9E23791E-A9D1-B24D-9D6E-42C1F180DBE7}"/>
+    <workbookView xWindow="13060" yWindow="500" windowWidth="18840" windowHeight="19440" activeTab="1" xr2:uid="{9E23791E-A9D1-B24D-9D6E-42C1F180DBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="shredding" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -128,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,13 +146,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CECAF4-10EE-7547-8F9A-E08E88E519F7}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,33 +519,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -575,37 +605,42 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3500</v>
+        <v>11260</v>
       </c>
       <c r="B3">
-        <v>2.8499999999999999E-4</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
+        <f>0.000285*0.002</f>
+        <v>5.6999999999999994E-7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>2.8499999999999999E-4</v>
+        <f>0.000285*0.002</f>
+        <v>5.6999999999999994E-7</v>
       </c>
       <c r="E3">
-        <v>0.26400000000000001</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="H3">
-        <v>8.3000000000000004E-2</v>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <f>0.083*0.016</f>
+        <v>1.3280000000000002E-3</v>
       </c>
       <c r="I3">
-        <v>0.25</v>
+        <f>0.25*0.016</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J3">
-        <v>8.3000000000000004E-2</v>
+        <f>0.083*0.016</f>
+        <v>1.3280000000000002E-3</v>
       </c>
       <c r="K3">
-        <v>75.41</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -645,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14329C3B-818D-974A-839B-1CDF92A21CC9}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,33 +707,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -757,40 +792,42 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>6000</v>
+      <c r="A3" s="3">
+        <v>100000</v>
       </c>
       <c r="B3">
-        <f>0.00086+0.00055</f>
-        <v>1.41E-3</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
+        <f>2.35*10^-6</f>
+        <v>2.3499999999999999E-6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
       </c>
       <c r="D3">
-        <f>0.00086+0.00055</f>
-        <v>1.41E-3</v>
+        <f>2.35*10^-6</f>
+        <v>2.3499999999999999E-6</v>
       </c>
       <c r="E3">
-        <v>0.98640000000000005</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="H3">
-        <v>0.66</v>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <f>0.083*0.64</f>
+        <v>5.3120000000000001E-2</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.16600000000000001</v>
+        <f>0.083*0.64</f>
+        <v>5.3120000000000001E-2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -831,7 +868,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,33 +894,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -943,37 +980,37 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>3.7599999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.7599999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.7E-2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.3900000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.3000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.3000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>75.41</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1040,34 +1077,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
